--- a/documentacion/Diagrama Gantt.xlsx
+++ b/documentacion/Diagrama Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\xampp\htdocs\RinconDelDado\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B5E4BD-4CCE-4A4E-ADA4-847FFBD3179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D06193-2FC9-43A0-8E15-4156A39AB7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5B4DE267-F27C-4947-B058-8043CC2F6B1A}"/>
   </bookViews>
@@ -574,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA6E1B-A194-4111-9206-DC3515C264E3}">
-  <dimension ref="B13:M24"/>
+  <dimension ref="B4:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,115 +592,126 @@
     <col min="14" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
+    <row r="4" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="13"/>
+      <c r="M15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
